--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\ИЯФ\NSTU\Design registration system\Student 2023\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A738C7C5-B948-45FF-B74B-246FD8EF2BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
@@ -401,18 +402,6 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -531,11 +520,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -581,6 +582,83 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -588,48 +666,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -701,104 +737,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1257,1057 +1195,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10" style="5" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="14.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="28" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" style="5" customWidth="1"/>
-    <col min="14" max="17" width="14.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" style="5" customWidth="1"/>
-    <col min="19" max="20" width="14.28515625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="5" customWidth="1"/>
-    <col min="22" max="23" width="14.28515625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="38" style="5" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="29.140625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="5"/>
-    <col min="28" max="28" width="12.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="5" customWidth="1"/>
-    <col min="30" max="31" width="9.28515625" style="5" customWidth="1"/>
-    <col min="32" max="1024" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="36.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="14.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="14.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="14.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="38" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="1"/>
+    <col min="28" max="28" width="12.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="1" customWidth="1"/>
+    <col min="30" max="31" width="9.28515625" style="1" customWidth="1"/>
+    <col min="32" max="1024" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="5">
         <v>44079</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="5">
         <f>C1+7</f>
         <v>44086</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="5">
         <f>D1+7</f>
         <v>44093</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="5">
         <f>F1+7</f>
         <v>44100</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="5">
         <f>G1+7</f>
         <v>44107</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="5">
         <f>H1+7</f>
         <v>44114</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="5">
         <f>J1+7</f>
         <v>44121</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="5">
         <f>K1+7</f>
         <v>44128</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="5">
         <f>L1+7</f>
         <v>44135</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="5">
         <f>N1+7</f>
         <v>44142</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="5">
         <f>O1+7</f>
         <v>44149</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="5">
         <f>P1+7</f>
         <v>44156</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="5">
         <f>Q1+7</f>
         <v>44163</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="5">
         <f>S1+7</f>
         <v>44170</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="5">
         <f>T1+7</f>
         <v>44177</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="5">
         <f>V1+7</f>
         <v>44184</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="5">
         <f>W1+7</f>
         <v>44191</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23">
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="19">
         <v>0</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="20">
         <v>85</v>
       </c>
-      <c r="AC2" s="25" t="str">
+      <c r="AC2" s="21" t="str">
         <f t="shared" ref="AC2:AC11" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AD2" s="26" t="str">
+      <c r="AD2" s="22" t="str">
         <f t="shared" ref="AD2:AD11" si="1">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
         <v>Не удовл</v>
       </c>
-      <c r="AE2" s="26" t="str">
+      <c r="AE2" s="22" t="str">
         <f t="shared" ref="AE2:AE11" si="2">IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="14">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="10">
         <v>85</v>
       </c>
-      <c r="AC3" s="29" t="str">
+      <c r="AC3" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD3" s="26" t="str">
+      <c r="AD3" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE3" s="26" t="str">
+      <c r="AE3" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="27" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="14">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD4" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE4" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Не зачет</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Не зачет</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>85</v>
+      </c>
+      <c r="AC6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE6" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Не зачет</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>85</v>
+      </c>
+      <c r="AC7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AE7" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Не зачет</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB8" s="10">
         <v>85</v>
       </c>
-      <c r="AC4" s="30" t="str">
+      <c r="AC8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD4" s="26" t="str">
+      <c r="AD8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE4" s="26" t="str">
+      <c r="AE8" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="27" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="19">
-        <v>4</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="14">
+    <row r="9" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="15">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB9" s="10">
         <v>85</v>
       </c>
-      <c r="AC5" s="30" t="str">
+      <c r="AC9" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD5" s="26" t="str">
+      <c r="AD9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE5" s="26" t="str">
+      <c r="AE9" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="27" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="19">
-        <v>5</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="14">
+    <row r="10" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB10" s="10">
         <v>85</v>
       </c>
-      <c r="AC6" s="30" t="str">
+      <c r="AC10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD6" s="26" t="str">
+      <c r="AD10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE6" s="26" t="str">
+      <c r="AE10" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="27" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="19">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="14">
+    <row r="11" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB11" s="31">
         <v>85</v>
       </c>
-      <c r="AC7" s="30" t="str">
+      <c r="AC11" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD7" s="26" t="str">
+      <c r="AD11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE7" s="26" t="str">
+      <c r="AE11" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>85</v>
-      </c>
-      <c r="AC8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="19">
-        <v>8</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>85</v>
-      </c>
-      <c r="AC9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>85</v>
-      </c>
-      <c r="AC10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD10" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE10" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="35">
-        <v>85</v>
-      </c>
-      <c r="AC11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD11" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE11" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:31" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="4" t="s">
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="1" t="s">
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="J18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="J19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="J20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="J21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="J22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="J23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="J24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="J25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2320,191 +2270,191 @@
     <mergeCell ref="S12:U12"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:J11 C2:M3 K5:M7 P2:Q7 W7:Y7 W5:Z6 C4:H9 I5:J9 I4:M4 W3:Y4 W2:Z2 T5:T7 T2:U4">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:U10 K8:M11 T11 Y11 T8 W8 Y8:Z8 P8:Q11 W9:Z10">
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A11">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O7">
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:O11">
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2">
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Не">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Не">
       <formula>NOT(ISERROR(SEARCH("Не",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="отл">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="отл">
       <formula>NOT(ISERROR(SEARCH("отл",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="хорошо">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="хорошо">
       <formula>NOT(ISERROR(SEARCH("хорошо",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="удовл">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="удовл">
       <formula>NOT(ISERROR(SEARCH("удовл",AC2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="C-">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="C-">
       <formula>NOT(ISERROR(SEARCH("C-",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="B+">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="B+">
       <formula>NOT(ISERROR(SEARCH("B+",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AD2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2">
-    <cfRule type="notContainsText" dxfId="25" priority="36" operator="notContains" text="не">
+    <cfRule type="notContainsText" dxfId="18" priority="36" operator="notContains" text="не">
       <formula>ISERROR(SEARCH("не",AE2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC11">
-    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="Не">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Не">
       <formula>NOT(ISERROR(SEARCH("Не",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="38" operator="containsText" text="отл">
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="отл">
       <formula>NOT(ISERROR(SEARCH("отл",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="хорошо">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="хорошо">
       <formula>NOT(ISERROR(SEARCH("хорошо",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="удовл">
+    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="удовл">
       <formula>NOT(ISERROR(SEARCH("удовл",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD11">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="C-">
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="C-">
       <formula>NOT(ISERROR(SEARCH("C-",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="44" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="45" operator="containsText" text="B+">
+    <cfRule type="containsText" dxfId="9" priority="45" operator="containsText" text="B+">
       <formula>NOT(ISERROR(SEARCH("B+",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="46" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",AD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="47" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="7" priority="47" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AD3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE11">
-    <cfRule type="notContainsText" dxfId="13" priority="48" operator="notContains" text="не">
+    <cfRule type="notContainsText" dxfId="6" priority="48" operator="notContains" text="не">
       <formula>ISERROR(SEARCH("не",AE3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V7">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V11">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S7">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S11">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:R11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2514,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
@@ -2527,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A738C7C5-B948-45FF-B74B-246FD8EF2BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445F79B-4ABD-4B86-BAE3-93AE8742D517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -400,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,9 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,8 +1360,12 @@
       <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -1403,8 +1416,12 @@
       <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>5</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1428,7 +1445,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1447,7 +1464,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="15">
@@ -1456,7 +1473,9 @@
       <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1509,8 +1528,12 @@
       <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>5</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1534,7 +1557,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="10">
         <v>85</v>
@@ -1562,8 +1585,12 @@
       <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -1587,7 +1614,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="10">
         <v>85</v>
@@ -1615,8 +1642,12 @@
       <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>5</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -1640,7 +1671,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445F79B-4ABD-4B86-BAE3-93AE8742D517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804131E9-C31C-4A0D-8670-8641CB17E81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,6 +526,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,9 @@
       <c r="E3" s="17">
         <v>5</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1445,7 +1447,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1464,7 +1466,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="15">
@@ -1534,7 +1536,9 @@
       <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1557,7 +1561,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="10">
         <v>85</v>
@@ -1591,7 +1595,9 @@
       <c r="E6" s="17">
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1614,7 +1620,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="10">
         <v>85</v>
@@ -1648,7 +1654,9 @@
       <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -1671,7 +1679,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>
@@ -1888,44 +1896,44 @@
     <row r="12" spans="1:31" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="45" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="43" t="s">
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="44" t="s">
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="44"/>
+      <c r="Z12" s="45"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="34"/>
       <c r="AC12" s="35"/>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804131E9-C31C-4A0D-8670-8641CB17E81E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96D943-12C7-4387-90CD-80D9F980AA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,10 +1364,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="17">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17">
         <v>0</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -1425,7 +1429,9 @@
       <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1447,7 +1453,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1539,7 +1545,9 @@
       <c r="F5" s="17">
         <v>1</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -1561,7 +1569,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="10">
         <v>85</v>
@@ -1598,7 +1606,9 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -1620,7 +1630,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="10">
         <v>85</v>
@@ -1657,7 +1667,9 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -1679,7 +1691,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96D943-12C7-4387-90CD-80D9F980AA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F373AA8-3CB0-4AEA-A53F-CF2C2D51AD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,10 +1372,18 @@
       <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>4</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1</v>
+      </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1432,10 +1440,18 @@
       <c r="G3" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -1453,7 +1469,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1548,10 +1564,16 @@
       <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
       <c r="L5" s="17"/>
       <c r="M5" s="27"/>
       <c r="N5" s="17"/>
@@ -1569,7 +1591,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="10">
         <v>85</v>
@@ -1609,10 +1631,18 @@
       <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -1630,7 +1660,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="10">
         <v>85</v>
@@ -1670,10 +1700,18 @@
       <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
@@ -1691,7 +1729,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student 2023\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leon\BINP\NSTU\Design registration system\Student 2023\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F373AA8-3CB0-4AEA-A53F-CF2C2D51AD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
@@ -543,7 +542,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
@@ -1204,12 +1203,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" s="17">
         <v>0</v>
@@ -1567,7 +1566,9 @@
       <c r="H5" s="17">
         <v>0</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
       <c r="J5" s="17">
         <v>1</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
@@ -1729,7 +1730,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>
@@ -2553,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
@@ -2566,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -1207,8 +1207,8 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,9 @@
       <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
@@ -1451,7 +1453,9 @@
       <c r="K3" s="17">
         <v>1</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="17">
+        <v>1</v>
+      </c>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -1468,7 +1472,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1575,7 +1579,9 @@
       <c r="K5" s="17">
         <v>1</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
       <c r="M5" s="27"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -1644,7 +1650,9 @@
       <c r="K6" s="17">
         <v>1</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
@@ -1661,7 +1669,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="10">
         <v>85</v>
@@ -1713,7 +1721,9 @@
       <c r="K7" s="17">
         <v>1</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="17">
+        <v>1</v>
+      </c>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -1730,7 +1740,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -145,7 +145,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -405,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,8 +1216,8 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1396,9 @@
         <v>1</v>
       </c>
       <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="18"/>
@@ -1457,7 +1468,9 @@
         <v>1</v>
       </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="17">
+        <v>1</v>
+      </c>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -1472,7 +1485,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1617,7 +1630,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="15">
@@ -1725,7 +1738,9 @@
         <v>1</v>
       </c>
       <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="17">
+        <v>1</v>
+      </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -1740,7 +1755,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -534,6 +534,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,9 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,9 +1399,15 @@
       <c r="N2" s="17">
         <v>1</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="17">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>1</v>
+      </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -1467,13 +1473,21 @@
       <c r="L3" s="17">
         <v>1</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="17">
+        <v>7</v>
+      </c>
       <c r="N3" s="17">
         <v>1</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="O3" s="17">
+        <v>1</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1</v>
+      </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -1485,7 +1499,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1584,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="17">
         <v>1</v>
@@ -1597,7 +1611,9 @@
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="17">
+        <v>1</v>
+      </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
@@ -1611,7 +1627,7 @@
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB5" s="10">
         <v>85</v>
@@ -1630,7 +1646,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="15">
@@ -1741,9 +1757,15 @@
       <c r="N7" s="17">
         <v>1</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="O7" s="17">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -1755,7 +1777,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>
@@ -1972,44 +1994,44 @@
     <row r="12" spans="1:31" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="44" t="s">
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="45" t="s">
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="45"/>
+      <c r="Z12" s="46"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="34"/>
       <c r="AC12" s="35"/>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -1217,7 +1217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,9 @@
       <c r="L2" s="17">
         <v>1</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="17">
+        <v>8</v>
+      </c>
       <c r="N2" s="17">
         <v>1</v>
       </c>
@@ -1474,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N3" s="17">
         <v>1</v>
@@ -1499,7 +1501,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="10">
         <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="10">
         <v>85</v>
@@ -1753,7 +1755,9 @@
       <c r="L7" s="17">
         <v>1</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="17">
+        <v>8</v>
+      </c>
       <c r="N7" s="17">
         <v>1</v>
       </c>
@@ -1777,7 +1781,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="10">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="10">
         <v>85</v>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -335,19 +335,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -411,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,12 +469,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -537,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,8 +1200,8 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,13 +1225,14 @@
     <col min="25" max="25" width="14.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="29.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="1"/>
-    <col min="28" max="28" width="12.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="1" customWidth="1"/>
-    <col min="30" max="31" width="9.28515625" style="1" customWidth="1"/>
-    <col min="32" max="1024" width="8.7109375" style="1"/>
+    <col min="28" max="28" width="9.42578125" style="1" customWidth="1"/>
+    <col min="29" max="30" width="9.28515625" style="1" customWidth="1"/>
+    <col min="31" max="33" width="8.7109375" style="1"/>
+    <col min="34" max="34" width="12.85546875" style="1" customWidth="1"/>
+    <col min="35" max="1024" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,21 +1330,21 @@
       <c r="AA1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="15">
@@ -1411,7 +1396,9 @@
         <v>1</v>
       </c>
       <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="17">
+        <v>1</v>
+      </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
@@ -1419,27 +1406,28 @@
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="20">
+      <c r="AA2" s="10">
+        <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
+        <v>29</v>
+      </c>
+      <c r="AB2" s="20" t="str">
+        <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
+        <v>Не удовл</v>
+      </c>
+      <c r="AC2" s="21" t="str">
+        <f t="shared" ref="AC2:AC11" si="2">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD2" s="21" t="str">
+        <f t="shared" ref="AD2:AD11" si="3">IF(AA2&gt;=AH2,"Зачет","Не зачет")</f>
+        <v>Не зачет</v>
+      </c>
+      <c r="AH2" s="19">
         <v>85</v>
       </c>
-      <c r="AC2" s="21" t="str">
-        <f t="shared" ref="AC2:AC11" si="0">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD2" s="22" t="str">
-        <f t="shared" ref="AD2:AD11" si="1">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AE2" s="22" t="str">
-        <f t="shared" ref="AE2:AE11" si="2">IF(AA2&gt;=AB2,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    </row>
+    <row r="3" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="15">
@@ -1491,36 +1479,38 @@
         <v>1</v>
       </c>
       <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
       <c r="T3" s="17"/>
-      <c r="U3" s="24"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
-      <c r="X3" s="24"/>
+      <c r="X3" s="23"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="24"/>
+      <c r="Z3" s="23"/>
       <c r="AA3" s="10">
-        <f t="shared" ref="AA3:AA11" si="3">SUM(C3:Z3)</f>
-        <v>33</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC3" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD3" s="22" t="str">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="24" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE3" s="22" t="str">
+      <c r="AC3" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD3" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="AH3" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="15">
@@ -1548,34 +1538,34 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="24"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
-      <c r="X4" s="24"/>
+      <c r="X4" s="23"/>
       <c r="Y4" s="17"/>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="23"/>
       <c r="AA4" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD4" s="22" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE4" s="22" t="str">
+      <c r="AC4" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD4" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="AH4" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="15">
@@ -1611,7 +1601,7 @@
       <c r="L5" s="17">
         <v>0</v>
       </c>
-      <c r="M5" s="27"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17">
         <v>1</v>
@@ -1619,36 +1609,38 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="17">
+        <v>1</v>
+      </c>
       <c r="T5" s="17"/>
-      <c r="U5" s="24"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
-      <c r="X5" s="27"/>
+      <c r="X5" s="26"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="10">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD5" s="22" t="str">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE5" s="22" t="str">
+      <c r="AC5" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD5" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="AH5" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="15">
@@ -1692,34 +1684,34 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
-      <c r="U6" s="24"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AB6" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD6" s="22" t="str">
+      <c r="AB6" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE6" s="22" t="str">
+      <c r="AC6" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD6" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="23" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="AH6" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="22" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="15">
@@ -1771,35 +1763,37 @@
         <v>1</v>
       </c>
       <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
       <c r="T7" s="17"/>
-      <c r="U7" s="24"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="23"/>
       <c r="AA7" s="10">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC7" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD7" s="22" t="str">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE7" s="22" t="str">
+      <c r="AC7" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD7" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH7" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="15">
         <v>7</v>
@@ -1814,7 +1808,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -1822,82 +1816,82 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="24"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="17"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD8" s="22" t="str">
+      <c r="AB8" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE8" s="22" t="str">
+      <c r="AC8" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD8" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="AH8" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="30"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="29"/>
       <c r="AA9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD9" s="22" t="str">
+      <c r="AB9" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE9" s="22" t="str">
+      <c r="AC9" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD9" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15">
         <v>9</v>
@@ -1908,7 +1902,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
@@ -1927,26 +1921,26 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="10">
-        <v>85</v>
-      </c>
-      <c r="AC10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD10" s="22" t="str">
+      <c r="AB10" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE10" s="22" t="str">
+      <c r="AC10" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD10" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15">
         <v>10</v>
@@ -1969,434 +1963,434 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
-      <c r="U11" s="24"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="31">
-        <f t="shared" si="3"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="31">
-        <v>85</v>
-      </c>
-      <c r="AC11" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD11" s="22" t="str">
+      <c r="AB11" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AE11" s="22" t="str">
+      <c r="AC11" s="21" t="str">
         <f t="shared" si="2"/>
+        <v>Не удовл</v>
+      </c>
+      <c r="AD11" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="45" t="s">
+      <c r="AH11" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="45" t="s">
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46" t="s">
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="46"/>
+      <c r="Z12" s="45"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="34"/>
       <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="AD12" s="35"/>
+      <c r="AH12" s="33"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AH13" s="37"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AH14" s="39"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="40"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AH15" s="39"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="40"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AH16" s="39"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AH17" s="39"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AH18" s="39"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AH19" s="39"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AH20" s="39"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AH21" s="39"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AH22" s="39"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AH23" s="39"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AH24" s="39"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AH25" s="39"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J31" s="1"/>
       <c r="L31" s="1"/>
     </row>
@@ -2485,88 +2479,88 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB2">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Не">
+      <formula>NOT(ISERROR(SEARCH("Не",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="отл">
+      <formula>NOT(ISERROR(SEARCH("отл",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="хорошо">
+      <formula>NOT(ISERROR(SEARCH("хорошо",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="удовл">
+      <formula>NOT(ISERROR(SEARCH("удовл",AB2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AC2">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Не">
-      <formula>NOT(ISERROR(SEARCH("Не",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="отл">
-      <formula>NOT(ISERROR(SEARCH("отл",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="хорошо">
-      <formula>NOT(ISERROR(SEARCH("хорошо",AC2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="удовл">
-      <formula>NOT(ISERROR(SEARCH("удовл",AC2)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="C-">
+      <formula>NOT(ISERROR(SEARCH("C-",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="B+">
+      <formula>NOT(ISERROR(SEARCH("B+",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AC2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2">
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="D">
-      <formula>NOT(ISERROR(SEARCH("D",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="C-">
-      <formula>NOT(ISERROR(SEARCH("C-",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="B+">
-      <formula>NOT(ISERROR(SEARCH("B+",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH("B",AD2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AD2)))</formula>
+    <cfRule type="notContainsText" dxfId="18" priority="36" operator="notContains" text="не">
+      <formula>ISERROR(SEARCH("не",AD2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="notContainsText" dxfId="18" priority="36" operator="notContains" text="не">
-      <formula>ISERROR(SEARCH("не",AE2))</formula>
+  <conditionalFormatting sqref="AB3:AB11">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Не">
+      <formula>NOT(ISERROR(SEARCH("Не",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="отл">
+      <formula>NOT(ISERROR(SEARCH("отл",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="хорошо">
+      <formula>NOT(ISERROR(SEARCH("хорошо",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="удовл">
+      <formula>NOT(ISERROR(SEARCH("удовл",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC11">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Не">
-      <formula>NOT(ISERROR(SEARCH("Не",AC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="отл">
-      <formula>NOT(ISERROR(SEARCH("отл",AC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="хорошо">
-      <formula>NOT(ISERROR(SEARCH("хорошо",AC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="удовл">
-      <formula>NOT(ISERROR(SEARCH("удовл",AC3)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="C-">
+      <formula>NOT(ISERROR(SEARCH("C-",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="45" operator="containsText" text="B+">
+      <formula>NOT(ISERROR(SEARCH("B+",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="47" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD11">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="D">
-      <formula>NOT(ISERROR(SEARCH("D",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="C-">
-      <formula>NOT(ISERROR(SEARCH("C-",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="45" operator="containsText" text="B+">
-      <formula>NOT(ISERROR(SEARCH("B+",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="B">
-      <formula>NOT(ISERROR(SEARCH("B",AD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="47" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",AD3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE11">
     <cfRule type="notContainsText" dxfId="6" priority="48" operator="notContains" text="не">
-      <formula>ISERROR(SEARCH("не",AE3))</formula>
+      <formula>ISERROR(SEARCH("не",AD3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V7">

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -351,183 +351,183 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,9 +928,9 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AE15" activeCellId="0" sqref="AE15"/>
+      <selection pane="topRight" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,13 +1133,15 @@
       </c>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="W2" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="13" t="n">
         <f aca="false">SUM(C2:Z2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="19" t="str">
         <f aca="false">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
@@ -1209,7 +1211,9 @@
       <c r="Q3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="17"/>
+      <c r="R3" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="S3" s="17" t="n">
         <v>1</v>
       </c>
@@ -1217,14 +1221,18 @@
         <v>1</v>
       </c>
       <c r="U3" s="22"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="V3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="X3" s="22"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="13" t="n">
         <f aca="false">SUM(C3:Z3)</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="23" t="str">
         <f aca="false">IF(AA3&gt;=87,"отл",IF(AA3&gt;=73,"хорошо",IF(AA3&gt;=50,"удовл","Не удовл")))</f>
@@ -1348,13 +1356,15 @@
       <c r="T5" s="17"/>
       <c r="U5" s="22"/>
       <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="X5" s="26"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="13" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="25" t="str">
         <f aca="false">IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
@@ -1504,13 +1514,15 @@
       </c>
       <c r="U7" s="22"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="X7" s="22"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="22"/>
       <c r="AA7" s="13" t="n">
         <f aca="false">SUM(C7:Z7)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="25" t="str">
         <f aca="false">IF(AA7&gt;=87,"отл",IF(AA7&gt;=73,"хорошо",IF(AA7&gt;=50,"удовл","Не удовл")))</f>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -928,9 +928,9 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R4" activeCellId="0" sqref="R4"/>
+      <selection pane="topRight" activeCell="Y8" activeCellId="0" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,11 +1137,13 @@
         <v>1</v>
       </c>
       <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
+      <c r="Y2" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z2" s="18"/>
       <c r="AA2" s="13" t="n">
         <f aca="false">SUM(C2:Z2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB2" s="19" t="str">
         <f aca="false">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
@@ -1228,11 +1230,13 @@
         <v>1</v>
       </c>
       <c r="X3" s="22"/>
-      <c r="Y3" s="17"/>
+      <c r="Y3" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z3" s="22"/>
       <c r="AA3" s="13" t="n">
         <f aca="false">SUM(C3:Z3)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="23" t="str">
         <f aca="false">IF(AA3&gt;=87,"отл",IF(AA3&gt;=73,"хорошо",IF(AA3&gt;=50,"удовл","Не удовл")))</f>
@@ -1360,11 +1364,13 @@
         <v>1</v>
       </c>
       <c r="X5" s="26"/>
-      <c r="Y5" s="17"/>
+      <c r="Y5" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z5" s="18"/>
       <c r="AA5" s="13" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB5" s="25" t="str">
         <f aca="false">IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
@@ -1518,11 +1524,13 @@
         <v>1</v>
       </c>
       <c r="X7" s="22"/>
-      <c r="Y7" s="17"/>
+      <c r="Y7" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z7" s="22"/>
       <c r="AA7" s="13" t="n">
         <f aca="false">SUM(C7:Z7)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="25" t="str">
         <f aca="false">IF(AA7&gt;=87,"отл",IF(AA7&gt;=73,"хорошо",IF(AA7&gt;=50,"удовл","Не удовл")))</f>

--- a/Баллы 2023.xlsx
+++ b/Баллы 2023.xlsx
@@ -928,9 +928,9 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y8" activeCellId="0" sqref="Y8"/>
+      <selection pane="topRight" activeCell="Z8" activeCellId="0" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1124,34 +1124,42 @@
       <c r="Q2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="17"/>
+      <c r="R2" s="17" t="n">
+        <v>8</v>
+      </c>
       <c r="S2" s="17" t="n">
         <v>1</v>
       </c>
       <c r="T2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="17"/>
+      <c r="U2" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="V2" s="17"/>
       <c r="W2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="X2" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="Y2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="18"/>
+      <c r="Z2" s="18" t="n">
+        <v>20</v>
+      </c>
       <c r="AA2" s="13" t="n">
         <f aca="false">SUM(C2:Z2)</f>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="19" t="str">
         <f aca="false">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AC2" s="20" t="str">
         <f aca="false">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>B-</v>
       </c>
       <c r="AD2" s="20" t="str">
         <f aca="false">IF(AA2&gt;=AH2,"Зачет","Не зачет")</f>
@@ -1222,33 +1230,39 @@
       <c r="T3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="22"/>
+      <c r="U3" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="V3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="W3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="22"/>
+      <c r="X3" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="Y3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="Z3" s="22"/>
+      <c r="Z3" s="22" t="n">
+        <v>20</v>
+      </c>
       <c r="AA3" s="13" t="n">
         <f aca="false">SUM(C3:Z3)</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="AB3" s="23" t="str">
         <f aca="false">IF(AA3&gt;=87,"отл",IF(AA3&gt;=73,"хорошо",IF(AA3&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>отл</v>
       </c>
       <c r="AC3" s="20" t="str">
         <f aca="false">IF(AA3&gt;=98,"A+",IF(AA3&gt;=93,"A",IF(AA3&gt;=90,"A-",IF(AA3&gt;=87,"B+",IF(AA3&gt;=83,"B",IF(AA3&gt;=80,"B-",IF(AA3&gt;=77,"C+",IF(AA3&gt;=73,"C",IF(AA3&gt;=70,"C-",IF(AA3&gt;=67,"D+",IF(AA3&gt;=63,"D",IF(AA3&gt;=60,"D-",IF(AA3&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>B+</v>
       </c>
       <c r="AD3" s="20" t="str">
         <f aca="false">IF(AA3&gt;=AH3,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
       <c r="AH3" s="13" t="n">
         <v>85</v>
@@ -1353,12 +1367,16 @@
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="17" t="n">
+        <v>8</v>
+      </c>
       <c r="S5" s="17" t="n">
         <v>1</v>
       </c>
       <c r="T5" s="17"/>
-      <c r="U5" s="22"/>
+      <c r="U5" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="V5" s="17"/>
       <c r="W5" s="17" t="n">
         <v>1</v>
@@ -1367,18 +1385,20 @@
       <c r="Y5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="18"/>
+      <c r="Z5" s="18" t="n">
+        <v>20</v>
+      </c>
       <c r="AA5" s="13" t="n">
         <f aca="false">SUM(C5:Z5)</f>
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="25" t="str">
         <f aca="false">IF(AA5&gt;=87,"отл",IF(AA5&gt;=73,"хорошо",IF(AA5&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>удовл</v>
       </c>
       <c r="AC5" s="20" t="str">
         <f aca="false">IF(AA5&gt;=98,"A+",IF(AA5&gt;=93,"A",IF(AA5&gt;=90,"A-",IF(AA5&gt;=87,"B+",IF(AA5&gt;=83,"B",IF(AA5&gt;=80,"B-",IF(AA5&gt;=77,"C+",IF(AA5&gt;=73,"C",IF(AA5&gt;=70,"C-",IF(AA5&gt;=67,"D+",IF(AA5&gt;=63,"D",IF(AA5&gt;=60,"D-",IF(AA5&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>E</v>
       </c>
       <c r="AD5" s="20" t="str">
         <f aca="false">IF(AA5&gt;=AH5,"Зачет","Не зачет")</f>
@@ -1511,34 +1531,42 @@
       <c r="Q7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="17"/>
+      <c r="R7" s="17" t="n">
+        <v>8</v>
+      </c>
       <c r="S7" s="17" t="n">
         <v>1</v>
       </c>
       <c r="T7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="U7" s="22"/>
+      <c r="U7" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="V7" s="17"/>
       <c r="W7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="X7" s="22"/>
+      <c r="X7" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="Y7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" s="22"/>
+      <c r="Z7" s="22" t="n">
+        <v>20</v>
+      </c>
       <c r="AA7" s="13" t="n">
         <f aca="false">SUM(C7:Z7)</f>
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AB7" s="25" t="str">
         <f aca="false">IF(AA7&gt;=87,"отл",IF(AA7&gt;=73,"хорошо",IF(AA7&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
+        <v>хорошо</v>
       </c>
       <c r="AC7" s="20" t="str">
         <f aca="false">IF(AA7&gt;=98,"A+",IF(AA7&gt;=93,"A",IF(AA7&gt;=90,"A-",IF(AA7&gt;=87,"B+",IF(AA7&gt;=83,"B",IF(AA7&gt;=80,"B-",IF(AA7&gt;=77,"C+",IF(AA7&gt;=73,"C",IF(AA7&gt;=70,"C-",IF(AA7&gt;=67,"D+",IF(AA7&gt;=63,"D",IF(AA7&gt;=60,"D-",IF(AA7&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
+        <v>B</v>
       </c>
       <c r="AD7" s="20" t="str">
         <f aca="false">IF(AA7&gt;=AH7,"Зачет","Не зачет")</f>
